--- a/data/trans_dic/P1429-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1429-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.03350926277322882</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.07868641501939511</v>
+        <v>0.07868641501939509</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.06014698591466139</v>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01303317263591971</v>
+        <v>0.01337089099465626</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
@@ -717,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.008578402547726384</v>
+        <v>0.008208707953582457</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06693413666810404</v>
+        <v>0.06545960395180757</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02956571955483669</v>
+        <v>0.030138460518882</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02379099702344857</v>
+        <v>0.02439938897767519</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06296591292908212</v>
+        <v>0.06363028641173638</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.048794086040586</v>
+        <v>0.05028181395332268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01660371488515</v>
+        <v>0.01649622375842092</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01376671205738491</v>
+        <v>0.01315067230648125</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04140909766044574</v>
+        <v>0.04143787608668295</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03966655168402938</v>
+        <v>0.04078686739802103</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.006615391284599423</v>
+        <v>0.007466831511043163</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.006314538000182511</v>
+        <v>0.006384946338230169</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03202674877144451</v>
+        <v>0.03034335109973425</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1025794121463455</v>
+        <v>0.100817795305609</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05322454236125101</v>
+        <v>0.05469191760824543</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04419055420280851</v>
+        <v>0.04555324062090874</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09563247923153266</v>
+        <v>0.09692462275742385</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07478301320893961</v>
+        <v>0.07491151154534811</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02839730308183885</v>
+        <v>0.02878152704187645</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0258482181622642</v>
+        <v>0.02524117129002595</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06225565640695001</v>
+        <v>0.06264615072340635</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004415488356431907</v>
+        <v>0.004153661443258035</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001988906612450875</v>
+        <v>0.00199618880544282</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.006648278933642355</v>
+        <v>0.006571533313965721</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01315736284678489</v>
+        <v>0.013310959053439</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02724529509912139</v>
+        <v>0.02731297885851235</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01592646676857458</v>
+        <v>0.0159007755407353</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03596098174884235</v>
+        <v>0.03528478175475255</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01030855546261861</v>
+        <v>0.0101392367090779</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01505258364084936</v>
+        <v>0.0151529837455097</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01053510328230561</v>
+        <v>0.01039362465134704</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02418431814336052</v>
+        <v>0.02322640001968644</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01609550098729508</v>
+        <v>0.01536735869785276</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.005526340211995366</v>
+        <v>0.007218095661780238</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01330762783915052</v>
+        <v>0.01439004681135905</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02626652340923044</v>
+        <v>0.0278545115869021</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03079892732867017</v>
+        <v>0.03047652003449047</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05063407147631734</v>
+        <v>0.04936170213751438</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03793415029116056</v>
+        <v>0.03638520964506253</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.05269776158757099</v>
+        <v>0.05244177334741543</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02019505702523506</v>
+        <v>0.02081914673991378</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02780058132951554</v>
+        <v>0.02744096559689017</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02226221447069536</v>
+        <v>0.02188873945061177</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03737425902411675</v>
+        <v>0.03645213403829902</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.002453712394162433</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.006230256542417628</v>
+        <v>0.006230256542417629</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02932642607790121</v>
@@ -980,38 +980,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001544557492339448</v>
+        <v>0.001615561048989181</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003080826028764119</v>
+        <v>0.002929920570837275</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01893539443570431</v>
+        <v>0.01972954136301075</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03447032876891118</v>
+        <v>0.03377170731942664</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03068487917528428</v>
+        <v>0.03007266669389817</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03416364191269051</v>
+        <v>0.03288159182291107</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01135200477187149</v>
+        <v>0.01128204822941529</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01707944852968526</v>
+        <v>0.01698473027148315</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01591132189825292</v>
+        <v>0.01543776464749988</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01924112133793041</v>
+        <v>0.01880268127761884</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.009981381256875753</v>
+        <v>0.009459646259549133</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.008106594935262867</v>
+        <v>0.008821236427257613</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01183136736185007</v>
+        <v>0.01175911664009499</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04079031837028513</v>
+        <v>0.042125291017396</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06470309464621825</v>
+        <v>0.06538490769368258</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06260914763881527</v>
+        <v>0.06236115563041188</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05462465616243183</v>
+        <v>0.05391618859920606</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02250880801927818</v>
+        <v>0.02266298961600013</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03365659392487109</v>
+        <v>0.03269606827452771</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03239263383786047</v>
+        <v>0.03083054487846808</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03148274977756409</v>
+        <v>0.03047301952933384</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.003436789358279889</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.002206431328236653</v>
+        <v>0.002206431328236652</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03604183198236048</v>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002380121208202254</v>
+        <v>0.003354628605378731</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0006230800908483139</v>
+        <v>0.0006185165528288015</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0201139117402419</v>
+        <v>0.01968007099464324</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01751886318890267</v>
+        <v>0.01755559073157938</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02464747983893623</v>
+        <v>0.02611177036772313</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02708434375264467</v>
+        <v>0.02714984054427313</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01299775729758305</v>
+        <v>0.01285164297987487</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01060237802582956</v>
+        <v>0.01063923188948531</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01320044939936194</v>
+        <v>0.01333639655823216</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01398219451689564</v>
+        <v>0.01371429197233652</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02506728798927548</v>
+        <v>0.02400328736008205</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02595434739034774</v>
+        <v>0.0267901206166517</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01127432259102757</v>
+        <v>0.01103329442124559</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.006659464708789343</v>
+        <v>0.006292257843659891</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06373501106448615</v>
+        <v>0.05824963938263879</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05182124601618379</v>
+        <v>0.05307358397561514</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06449828692433944</v>
+        <v>0.06508274198092957</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04583969515741982</v>
+        <v>0.04548994518052645</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03462821808023368</v>
+        <v>0.03334690391108801</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02989066168424288</v>
+        <v>0.03008589858445342</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03334242083386329</v>
+        <v>0.03401659778218437</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02322115738330296</v>
+        <v>0.02336778320825027</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.003257945817345224</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.008491753941835654</v>
+        <v>0.008491753941835652</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.042169796036441</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007228664396621012</v>
+        <v>0.00709557997924694</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0006022434136222723</v>
+        <v>0.0006061121350676245</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.001667555489529185</v>
+        <v>0.001674223824414846</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.005759901270595432</v>
+        <v>0.005799483281447341</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03498639076755491</v>
+        <v>0.03543828919179838</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03396859784881599</v>
+        <v>0.03438252808083726</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02810041925280493</v>
+        <v>0.02814466453616955</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04191408289235768</v>
+        <v>0.04173760878786457</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02277934462331709</v>
+        <v>0.02268318814253145</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01813888083479738</v>
+        <v>0.01806721865508387</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01580031352724879</v>
+        <v>0.01585075146362471</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02474777596277951</v>
+        <v>0.02535585709193999</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0143661703050764</v>
+        <v>0.01434896886610036</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.004732782920652448</v>
+        <v>0.004583961374096094</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.005619044227893991</v>
+        <v>0.005563931013250313</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01291645039356542</v>
+        <v>0.01231545940498395</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04850091171969891</v>
+        <v>0.04940343327735506</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04674559056355922</v>
+        <v>0.0473567209786231</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0412898471362767</v>
+        <v>0.04124777309346979</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05273045639867505</v>
+        <v>0.05297845608760518</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03049057224047063</v>
+        <v>0.03079632992392723</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02509587966522667</v>
+        <v>0.02496797334363815</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02279647812727918</v>
+        <v>0.02284736073274168</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03159574061053751</v>
+        <v>0.03197668100095122</v>
       </c>
     </row>
     <row r="19">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7613</v>
+        <v>7810</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
@@ -1605,31 +1605,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4259</v>
+        <v>4075</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>61736</v>
+        <v>60376</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>33074</v>
+        <v>33714</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>29966</v>
+        <v>30733</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>39012</v>
+        <v>39424</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>73507</v>
+        <v>75748</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>35907</v>
+        <v>35675</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>32869</v>
+        <v>31398</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>46215</v>
+        <v>46247</v>
       </c>
     </row>
     <row r="7">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23171</v>
+        <v>23825</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6906</v>
+        <v>7795</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7123</v>
+        <v>7202</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15900</v>
+        <v>15065</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>94612</v>
+        <v>92988</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>59540</v>
+        <v>61181</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>55661</v>
+        <v>57377</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>59252</v>
+        <v>60052</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>112659</v>
+        <v>112852</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>61412</v>
+        <v>62243</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>61714</v>
+        <v>60265</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>69480</v>
+        <v>69916</v>
       </c>
     </row>
     <row r="8">
@@ -1776,40 +1776,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4759</v>
+        <v>4477</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1808</v>
+        <v>1814</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6372</v>
+        <v>6298</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13914</v>
+        <v>14077</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>29731</v>
+        <v>29804</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16030</v>
+        <v>16004</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>39975</v>
+        <v>39223</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>22013</v>
+        <v>21652</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>31118</v>
+        <v>31326</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>20178</v>
+        <v>19907</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>50063</v>
+        <v>48080</v>
       </c>
     </row>
     <row r="11">
@@ -1820,40 +1820,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17349</v>
+        <v>16564</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5394</v>
+        <v>7045</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12094</v>
+        <v>13078</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25175</v>
+        <v>26697</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>32571</v>
+        <v>32230</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>55253</v>
+        <v>53864</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>38180</v>
+        <v>36621</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>58580</v>
+        <v>58295</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>43125</v>
+        <v>44458</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>57472</v>
+        <v>56728</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>42639</v>
+        <v>41924</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>77366</v>
+        <v>75457</v>
       </c>
     </row>
     <row r="12">
@@ -1956,38 +1956,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1732</v>
+        <v>1812</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3222</v>
+        <v>3065</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>18821</v>
+        <v>19610</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>30189</v>
+        <v>29577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>23660</v>
+        <v>23188</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>35700</v>
+        <v>34360</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>24016</v>
+        <v>23868</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>30075</v>
+        <v>29909</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>25376</v>
+        <v>24620</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>40232</v>
+        <v>39315</v>
       </c>
     </row>
     <row r="15">
@@ -1998,38 +1998,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11195</v>
+        <v>10610</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>6678</v>
+        <v>7267</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12375</v>
+        <v>12300</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>40543</v>
+        <v>41870</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>56667</v>
+        <v>57264</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>48275</v>
+        <v>48084</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>57080</v>
+        <v>56340</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>47618</v>
+        <v>47944</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>59266</v>
+        <v>57575</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>51660</v>
+        <v>49169</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>65829</v>
+        <v>63717</v>
       </c>
     </row>
     <row r="16">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1064</v>
+        <v>1500</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
@@ -2141,31 +2141,31 @@
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6862</v>
+        <v>6714</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7931</v>
+        <v>7948</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>12070</v>
+        <v>12787</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>24526</v>
+        <v>24585</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>10247</v>
+        <v>10132</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>10133</v>
+        <v>10169</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>13153</v>
+        <v>13288</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>26279</v>
+        <v>25775</v>
       </c>
     </row>
     <row r="19">
@@ -2176,40 +2176,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11210</v>
+        <v>10734</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>13056</v>
+        <v>13476</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5713</v>
+        <v>5591</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>6486</v>
+        <v>6128</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21744</v>
+        <v>19872</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>23461</v>
+        <v>24028</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>31585</v>
+        <v>31871</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>41509</v>
+        <v>41192</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>27299</v>
+        <v>26289</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>28568</v>
+        <v>28755</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>33222</v>
+        <v>33894</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>43643</v>
+        <v>43919</v>
       </c>
     </row>
     <row r="20">
@@ -2312,40 +2312,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23355</v>
+        <v>22925</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2053</v>
+        <v>2066</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5615</v>
+        <v>5638</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>20015</v>
+        <v>20152</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>115979</v>
+        <v>117477</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>120195</v>
+        <v>121659</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>99104</v>
+        <v>99260</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>154314</v>
+        <v>153664</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>149109</v>
+        <v>148480</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>126003</v>
+        <v>125505</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>108929</v>
+        <v>109276</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>177107</v>
+        <v>181459</v>
       </c>
     </row>
     <row r="23">
@@ -2356,40 +2356,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>46415</v>
+        <v>46359</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>16130</v>
+        <v>15623</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>18921</v>
+        <v>18735</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>44882</v>
+        <v>42794</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>160779</v>
+        <v>163771</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>165405</v>
+        <v>167567</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>145621</v>
+        <v>145472</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>194136</v>
+        <v>195049</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>199585</v>
+        <v>201587</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>174330</v>
+        <v>173441</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>157161</v>
+        <v>157511</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>226114</v>
+        <v>228841</v>
       </c>
     </row>
     <row r="24">
